--- a/Results_tdd/tests_timings.xlsx
+++ b/Results_tdd/tests_timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\IdeaProjects\spring_modulith_tdd\Results_tdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29281D0-88BA-443C-A3A0-43ADA8FAA844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305AEC6-21BC-4CC4-992F-E8FF1A6286D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BA9F846-8496-4F9B-81FF-42C4360FDE34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>detroit_unitary</t>
   </si>
@@ -49,131 +49,14 @@
   <si>
     <t>london_integration</t>
   </si>
-  <si>
-    <t>9.183</t>
-  </si>
-  <si>
-    <t>19.392</t>
-  </si>
-  <si>
-    <t>10.544</t>
-  </si>
-  <si>
-    <t>22.875</t>
-  </si>
-  <si>
-    <t>9.154</t>
-  </si>
-  <si>
-    <t>9.307</t>
-  </si>
-  <si>
-    <t>9.642</t>
-  </si>
-  <si>
-    <t>9.445</t>
-  </si>
-  <si>
-    <t>10.060</t>
-  </si>
-  <si>
-    <t>9.245</t>
-  </si>
-  <si>
-    <t>9.386</t>
-  </si>
-  <si>
-    <t>9.361</t>
-  </si>
-  <si>
-    <t>9.304</t>
-  </si>
-  <si>
-    <t>18.088</t>
-  </si>
-  <si>
-    <t>17.901</t>
-  </si>
-  <si>
-    <t>17.850</t>
-  </si>
-  <si>
-    <t>17.829</t>
-  </si>
-  <si>
-    <t>18.220</t>
-  </si>
-  <si>
-    <t>17.920</t>
-  </si>
-  <si>
-    <t>17.797</t>
-  </si>
-  <si>
-    <t>18.231</t>
-  </si>
-  <si>
-    <t>17.949</t>
-  </si>
-  <si>
-    <t>11.028</t>
-  </si>
-  <si>
-    <t>10.949</t>
-  </si>
-  <si>
-    <t>10.729</t>
-  </si>
-  <si>
-    <t>11.118</t>
-  </si>
-  <si>
-    <t>10.804</t>
-  </si>
-  <si>
-    <t>10.927</t>
-  </si>
-  <si>
-    <t>11.033</t>
-  </si>
-  <si>
-    <t>11.119</t>
-  </si>
-  <si>
-    <t>10.937</t>
-  </si>
-  <si>
-    <t>23.502</t>
-  </si>
-  <si>
-    <t>23.834</t>
-  </si>
-  <si>
-    <t>23.731</t>
-  </si>
-  <si>
-    <t>23.616</t>
-  </si>
-  <si>
-    <t>23.323</t>
-  </si>
-  <si>
-    <t>23.429</t>
-  </si>
-  <si>
-    <t>24.086</t>
-  </si>
-  <si>
-    <t>23.849</t>
-  </si>
-  <si>
-    <t>23.219</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8EC68-C59F-45F2-B96E-6F5A38213731}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,143 +461,161 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="A2" s="2">
+        <v>9.1829999999999998</v>
+      </c>
+      <c r="B2" s="2">
+        <v>19.391999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.544</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.875</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+      <c r="A3" s="2">
+        <v>9.1539999999999999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18.088000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11.028</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.501999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+      <c r="A4" s="2">
+        <v>9.3070000000000004</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17.901</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.949</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23.834</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+      <c r="A5" s="2">
+        <v>9.6419999999999995</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10.728999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23.731000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
+      <c r="A6" s="2">
+        <v>9.4450000000000003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17.829000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11.118</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23.616</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
+      <c r="A7" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18.22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.804</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23.323</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
+      <c r="A8" s="2">
+        <v>9.2449999999999992</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.927</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23.428999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
+      <c r="A9" s="2">
+        <v>9.3859999999999992</v>
+      </c>
+      <c r="B9" s="2">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.032999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.085999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
+      <c r="A10" s="2">
+        <v>9.3610000000000007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>18.231000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11.119</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23.849</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+      <c r="A11" s="2">
+        <v>9.3040000000000003</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17.949000000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.936999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23.219000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGE(A2:A11)</f>
+        <v>9.4086999999999996</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:D13" si="0">AVERAGE(B2:B11)</f>
+        <v>18.117700000000003</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10.918799999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>23.546399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Results_tdd/tests_timings.xlsx
+++ b/Results_tdd/tests_timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\IdeaProjects\spring_modulith_tdd\Results_tdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305AEC6-21BC-4CC4-992F-E8FF1A6286D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026FD9F7-EC61-4F1C-AFE0-E64533F7A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BA9F846-8496-4F9B-81FF-42C4360FDE34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>detroit_unitary</t>
   </si>
@@ -49,15 +49,21 @@
   <si>
     <t>london_integration</t>
   </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +79,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,14 +104,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8EC68-C59F-45F2-B96E-6F5A38213731}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,181 +555,261 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>9.1829999999999998</v>
-      </c>
-      <c r="B2" s="2">
-        <v>19.391999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10.544</v>
-      </c>
-      <c r="D2" s="2">
-        <v>22.875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>9.1539999999999999</v>
-      </c>
-      <c r="B3" s="2">
-        <v>18.088000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11.028</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23.501999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>9.3070000000000004</v>
-      </c>
-      <c r="B4" s="2">
-        <v>17.901</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10.949</v>
-      </c>
-      <c r="D4" s="2">
-        <v>23.834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>9.6419999999999995</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10.728999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23.731000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>9.4450000000000003</v>
-      </c>
-      <c r="B6" s="2">
-        <v>17.829000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11.118</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23.616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>10.06</v>
-      </c>
-      <c r="B7" s="2">
-        <v>18.22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.804</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>9.2449999999999992</v>
-      </c>
-      <c r="B8" s="2">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10.927</v>
-      </c>
-      <c r="D8" s="2">
-        <v>23.428999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>9.3859999999999992</v>
-      </c>
-      <c r="B9" s="2">
-        <v>17.797000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11.032999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>24.085999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9.3610000000000007</v>
-      </c>
-      <c r="B10" s="2">
-        <v>18.231000000000002</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11.119</v>
-      </c>
-      <c r="D10" s="2">
-        <v>23.849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9.3040000000000003</v>
-      </c>
-      <c r="B11" s="2">
-        <v>17.949000000000002</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10.936999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>23.219000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>AVERAGE(A2:A11)</f>
-        <v>9.4086999999999996</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:D13" si="0">AVERAGE(B2:B11)</f>
-        <v>18.117700000000003</v>
-      </c>
-      <c r="C13">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.665</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.452</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.704</v>
+      </c>
+      <c r="H3" s="7">
+        <v>13.871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.242</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8.282</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.708</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14.068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.657</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.376</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.0009999999999994</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14.105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8.407</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.704</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14.034000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.254</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.665</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8.3879999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="H7" s="10">
+        <v>13.666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>AVERAGE(A3:A7)</f>
+        <v>0.33440000000000003</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:H9" si="0">AVERAGE(B3:B7)</f>
+        <v>1.2529999999999997</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10.918799999999999</v>
-      </c>
-      <c r="D13">
+        <v>1.6614</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>23.546399999999998</v>
-      </c>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5059999999999985</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7049999999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>13.9488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results_tdd/tests_timings.xlsx
+++ b/Results_tdd/tests_timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\IdeaProjects\spring_modulith_tdd\Results_tdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026FD9F7-EC61-4F1C-AFE0-E64533F7A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AF536-5D9D-488A-8092-FF950031C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BA9F846-8496-4F9B-81FF-42C4360FDE34}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{0BA9F846-8496-4F9B-81FF-42C4360FDE34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,11 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -546,7 +545,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,21 +561,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -585,10 +584,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -597,137 +596,137 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>0.33200000000000002</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1.26</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1.665</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1.0840000000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.38</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>8.452</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>1.704</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>13.871</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>0.33300000000000002</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1.242</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1.6579999999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1.1359999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>8.282</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>1.708</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>14.068</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1.657</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.376</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>9.0009999999999994</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1.6990000000000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>14.105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>0.34399999999999997</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1.25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>1.6619999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.1120000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>8.407</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1.704</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>14.034000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>0.32700000000000001</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1.254</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1.665</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1.1020000000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.375</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>8.3879999999999999</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1.71</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>13.666</v>
       </c>
     </row>
@@ -742,38 +741,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>AVERAGE(A3:A7)</f>
-        <v>0.33440000000000003</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ref="B9:H9" si="0">AVERAGE(B3:B7)</f>
-        <v>1.2529999999999997</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6614</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37940000000000002</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5059999999999985</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7049999999999996</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>13.9488</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
